--- a/PJ管理/delHost仮環境設定手順.xlsx
+++ b/PJ管理/delHost仮環境設定手順.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6449046F-B594-4B24-81C3-3EBF16A051BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32E61D-A389-4D99-9202-4915AF74881C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,13 +844,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>107769</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>272</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -866,7 +866,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600075" y="40500299"/>
+          <a:off x="600075" y="59788424"/>
           <a:ext cx="11166294" cy="5038725"/>
           <a:chOff x="600075" y="40976549"/>
           <a:chExt cx="11166294" cy="5038725"/>
@@ -1090,6 +1090,226 @@
         <a:xfrm>
           <a:off x="1381125" y="704850"/>
           <a:ext cx="8087854" cy="6925642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8943</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F5FEA4-5EE9-4BF2-A6B3-5D717D37742C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="40005000"/>
+          <a:ext cx="6181143" cy="3648075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>78615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007A9A7D-C1B9-4BC3-AF81-7E172095D2F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="43815000"/>
+          <a:ext cx="6181725" cy="3650490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>35822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB336F3-03E1-4167-8173-47F1D4D40AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="47625001"/>
+          <a:ext cx="6162674" cy="3607696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>17709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7124C9D3-852B-464B-BE65-398EACCE174E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="51435000"/>
+          <a:ext cx="6134100" cy="3589584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>33452</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9745E025-EBAA-402A-9DBC-C757C81DCD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685801" y="55245000"/>
+          <a:ext cx="6086474" cy="3605327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1364,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:XFD170"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="O237" sqref="O237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1430,8 +1650,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/PJ管理/delHost仮環境設定手順.xlsx
+++ b/PJ管理/delHost仮環境設定手順.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32E61D-A389-4D99-9202-4915AF74881C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA75BE4-C0DD-4522-99C4-A520E1C1FB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,111 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>net user administrator /active:yes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>administratorを選択する</t>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Administratorアカウントを切り替えする。</t>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者権限でwindowsのpowerShellを起動して、下記のコマンドを実行する。</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①administrator ユーザ有効にする</t>
-    <rPh sb="18" eb="20">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②administrator ユーザのパスワード設定</t>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントロールパネルで「アカウントの種類の変更」を選択する</t>
-    <rPh sb="17" eb="19">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードの変更」、または「パスワードの作成」を選択する。</t>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード（drasap）を入力して、パスワードの変更ボタンを押下</t>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③共有フォルダ作成</t>
-    <rPh sb="1" eb="3">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -137,9 +35,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>④delHostReq.xmlを修正</t>
+    <t>■administrator ユーザ有効とパスワード設定</t>
+    <rPh sb="18" eb="20">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①管理者権限でwindowsのpowerShellを起動</t>
+    <rPh sb="1" eb="3">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②下記のコマンドを実行して、administrator ユーザを有効にする</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②下記のコマンドを実行して、administrator パスワードをdrasapで設定</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>net user administrator drasap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■Administratorアカウントを切り替えする。</t>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■共有フォルダ作成</t>
+    <rPh sb="1" eb="3">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■delHostReq.xmlを修正</t>
     <rPh sb="16" eb="18">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,525 +192,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>158429</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>167376</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="グループ化 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2EC736-2669-5795-B40C-E295B3A6068E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1381126" y="8572500"/>
-          <a:ext cx="9064303" cy="4929876"/>
-          <a:chOff x="1381126" y="8572500"/>
-          <a:chExt cx="9064303" cy="4929876"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="図 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B52B25-DF62-46D9-9138-04D8B965AADA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1381126" y="8572500"/>
-            <a:ext cx="9064303" cy="4929876"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16BD3AD-7634-4DE4-8A8B-62C65A5F1D23}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6200775" y="9277350"/>
-            <a:ext cx="790575" cy="133350"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>229874</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>200716</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="グループ化 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA8DADA-DB95-B0FB-F29C-059975557765}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1390650" y="14306551"/>
-          <a:ext cx="9126224" cy="4944165"/>
-          <a:chOff x="66675" y="14382751"/>
-          <a:chExt cx="9126224" cy="4944165"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757E4651-5341-4B18-BF65-25F235D60623}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="66675" y="14382751"/>
-            <a:ext cx="9126224" cy="4944165"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47DEF6C4-1C05-40F1-898D-05C011E6CED6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4591050" y="14801850"/>
-            <a:ext cx="1152525" cy="533400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>210824</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>186426</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E864437B-F020-2729-F7E1-2141968CFCAA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1371600" y="20021550"/>
-          <a:ext cx="9126224" cy="4929876"/>
-          <a:chOff x="1371600" y="20021550"/>
-          <a:chExt cx="9126224" cy="4929876"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="図 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D72EEB-9C4E-4875-8530-821138BAF1F6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1371600" y="20021550"/>
-            <a:ext cx="9126224" cy="4929876"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BF3769-DE0B-4C53-849D-AA6161F7291E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4467225" y="20507325"/>
-            <a:ext cx="609600" cy="133350"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>234637</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>205477</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4420F071-1EF9-BBD9-3511-9E47B69A9750}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1390650" y="25507950"/>
-          <a:ext cx="9130987" cy="4939402"/>
-          <a:chOff x="0" y="25517475"/>
-          <a:chExt cx="9130987" cy="4939402"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{595DE2C7-6250-4FD7-AF62-0E365C3BDDEC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="25517475"/>
-            <a:ext cx="9130987" cy="4939402"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6093B310-702A-408C-8CF7-78602BDC6ACE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3143250" y="26612849"/>
-            <a:ext cx="942975" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAF8460-6503-4205-AD14-E498F1DC080D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4953000" y="27279600"/>
-            <a:ext cx="581025" cy="161925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>467166</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>10426</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -751,7 +215,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1419225" y="31175325"/>
+          <a:off x="1419225" y="14744700"/>
           <a:ext cx="3162741" cy="6458851"/>
           <a:chOff x="1390650" y="31146750"/>
           <a:chExt cx="3162741" cy="6458851"/>
@@ -771,7 +235,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -844,13 +308,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>107769</xdr:colOff>
-      <xdr:row>272</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -866,7 +330,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="600075" y="59788424"/>
+          <a:off x="600075" y="43357799"/>
           <a:ext cx="11166294" cy="5038725"/>
           <a:chOff x="600075" y="40976549"/>
           <a:chExt cx="11166294" cy="5038725"/>
@@ -886,7 +350,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1014,13 +478,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>505565</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>38265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1037,7 +501,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1056,59 +520,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>553579</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>10492</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4924B4FD-2AE1-D2A5-6DEE-695346911841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1381125" y="704850"/>
-          <a:ext cx="8087854" cy="6925642"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>8943</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1125,7 +545,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1146,13 +566,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>199</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>78615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1169,7 +589,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1190,13 +610,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>215</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>35822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1213,7 +633,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1234,13 +654,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>216</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>17709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1257,7 +677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1278,13 +698,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>247</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>33452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1301,7 +721,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1310,6 +730,138 @@
         <a:xfrm>
           <a:off x="685801" y="55245000"/>
           <a:ext cx="6086474" cy="3605327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467652</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>191053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAEF5A6-D00B-923D-5AB1-AA2D59F13A88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="514350"/>
+          <a:ext cx="6639852" cy="3962953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>410494</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06FE93E0-7648-ADE0-B832-83C9B57FE539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="5476875"/>
+          <a:ext cx="6582694" cy="3943900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>420020</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>162479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB1690D3-B368-53D5-F925-B583E1743196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="10239375"/>
+          <a:ext cx="6592220" cy="3972479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1584,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="O237" sqref="O237"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1597,7 +1149,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1605,54 +1157,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="1" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="1" t="s">
+    <row r="43" spans="2:3">
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1" t="s">
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="B93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="B162" s="1" t="s">
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
